--- a/dataanalysis/data/predictions/1000/09160938_1058.xlsx
+++ b/dataanalysis/data/predictions/1000/09160938_1058.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="149">
   <si>
     <t>序号</t>
   </si>
@@ -118,6 +118,9 @@
     <t>重合</t>
   </si>
   <si>
+    <t>预测成功</t>
+  </si>
+  <si>
     <t>2025-09-16</t>
   </si>
   <si>
@@ -458,12 +461,6 @@
   </si>
   <si>
     <t>否</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
 </sst>
 </file>
@@ -821,13 +818,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH48"/>
+  <dimension ref="A1:AI48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -930,19 +927,22 @@
       <c r="AH1" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:35">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C2">
         <v>300004</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E2">
         <v>1.13</v>
@@ -960,7 +960,7 @@
         <v>42755.6</v>
       </c>
       <c r="J2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K2">
         <v>4</v>
@@ -1002,10 +1002,25 @@
         <v>0.08</v>
       </c>
       <c r="X2" t="s">
-        <v>111</v>
+        <v>112</v>
+      </c>
+      <c r="Y2">
+        <v>-1.25</v>
+      </c>
+      <c r="Z2">
+        <v>15.28</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
       </c>
       <c r="AC2" t="s">
-        <v>146</v>
+        <v>147</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
       </c>
       <c r="AF2">
         <v>0</v>
@@ -1013,22 +1028,25 @@
       <c r="AG2">
         <v>5.121651649475098</v>
       </c>
-      <c r="AH2" t="s">
-        <v>148</v>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:35">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C3">
         <v>300007</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E3">
         <v>10.54</v>
@@ -1046,7 +1064,7 @@
         <v>127966.25</v>
       </c>
       <c r="J3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K3">
         <v>6</v>
@@ -1088,10 +1106,25 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="X3" t="s">
-        <v>112</v>
+        <v>113</v>
+      </c>
+      <c r="Y3">
+        <v>5.9</v>
+      </c>
+      <c r="Z3">
+        <v>73</v>
+      </c>
+      <c r="AA3">
+        <v>22.07</v>
       </c>
       <c r="AC3" t="s">
-        <v>146</v>
+        <v>147</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>1</v>
       </c>
       <c r="AF3">
         <v>0</v>
@@ -1099,22 +1132,25 @@
       <c r="AG3">
         <v>-0.6294919848442078</v>
       </c>
-      <c r="AH3" t="s">
-        <v>148</v>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:35">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C4">
         <v>300014</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E4">
         <v>-0.5</v>
@@ -1132,7 +1168,7 @@
         <v>133266.41</v>
       </c>
       <c r="J4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K4">
         <v>8</v>
@@ -1173,8 +1209,23 @@
       <c r="W4">
         <v>-0.08</v>
       </c>
+      <c r="Y4">
+        <v>0.57</v>
+      </c>
+      <c r="Z4">
+        <v>75.64</v>
+      </c>
+      <c r="AA4">
+        <v>2.84</v>
+      </c>
       <c r="AC4" t="s">
-        <v>147</v>
+        <v>148</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
       </c>
       <c r="AF4">
         <v>0</v>
@@ -1182,22 +1233,25 @@
       <c r="AG4">
         <v>6.715557098388672</v>
       </c>
-      <c r="AH4" t="s">
-        <v>148</v>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:35">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C5">
         <v>300043</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E5">
         <v>13.06</v>
@@ -1215,7 +1269,7 @@
         <v>87207.45</v>
       </c>
       <c r="J5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K5">
         <v>5</v>
@@ -1256,8 +1310,23 @@
       <c r="W5">
         <v>-0.26</v>
       </c>
+      <c r="Y5">
+        <v>-0.26</v>
+      </c>
+      <c r="Z5">
+        <v>8.19</v>
+      </c>
+      <c r="AA5">
+        <v>8.76</v>
+      </c>
       <c r="AC5" t="s">
-        <v>147</v>
+        <v>148</v>
+      </c>
+      <c r="AD5">
+        <v>1</v>
+      </c>
+      <c r="AE5">
+        <v>1</v>
       </c>
       <c r="AF5">
         <v>1</v>
@@ -1265,22 +1334,25 @@
       <c r="AG5">
         <v>-7.626243114471436</v>
       </c>
-      <c r="AH5" t="s">
-        <v>148</v>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:35">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C6">
         <v>300049</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E6">
         <v>0.61</v>
@@ -1298,7 +1370,7 @@
         <v>47845.59</v>
       </c>
       <c r="J6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K6">
         <v>14</v>
@@ -1340,10 +1412,25 @@
         <v>-0.01</v>
       </c>
       <c r="X6" t="s">
-        <v>113</v>
+        <v>114</v>
+      </c>
+      <c r="Y6">
+        <v>2.36</v>
+      </c>
+      <c r="Z6">
+        <v>89.19</v>
+      </c>
+      <c r="AA6">
+        <v>7.8</v>
       </c>
       <c r="AC6" t="s">
-        <v>147</v>
+        <v>148</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>1</v>
       </c>
       <c r="AF6">
         <v>0</v>
@@ -1351,22 +1438,25 @@
       <c r="AG6">
         <v>4.466498374938965</v>
       </c>
-      <c r="AH6" t="s">
-        <v>148</v>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:35">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C7">
         <v>300139</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E7">
         <v>1.56</v>
@@ -1384,7 +1474,7 @@
         <v>51535.14</v>
       </c>
       <c r="J7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K7">
         <v>6</v>
@@ -1426,10 +1516,25 @@
         <v>-0.37</v>
       </c>
       <c r="X7" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="Y7">
+        <v>-3.2</v>
+      </c>
+      <c r="Z7">
+        <v>28.1</v>
+      </c>
+      <c r="AA7">
+        <v>4.97</v>
       </c>
       <c r="AC7" t="s">
-        <v>147</v>
+        <v>148</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
       </c>
       <c r="AF7">
         <v>0</v>
@@ -1437,22 +1542,25 @@
       <c r="AG7">
         <v>-4.384392738342285</v>
       </c>
-      <c r="AH7" t="s">
-        <v>148</v>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:35">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C8">
         <v>300223</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E8">
         <v>-0.24</v>
@@ -1470,7 +1578,7 @@
         <v>45155.78</v>
       </c>
       <c r="J8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -1511,8 +1619,23 @@
       <c r="W8">
         <v>0.01</v>
       </c>
+      <c r="Y8">
+        <v>-0.75</v>
+      </c>
+      <c r="Z8">
+        <v>84.2</v>
+      </c>
+      <c r="AA8">
+        <v>0.96</v>
+      </c>
       <c r="AC8" t="s">
-        <v>146</v>
+        <v>147</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
       </c>
       <c r="AF8">
         <v>0</v>
@@ -1520,22 +1643,25 @@
       <c r="AG8">
         <v>1.980248928070068</v>
       </c>
-      <c r="AH8" t="s">
-        <v>148</v>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:35">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C9">
         <v>300237</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E9">
         <v>-1.51</v>
@@ -1553,7 +1679,7 @@
         <v>19347.38</v>
       </c>
       <c r="J9" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K9">
         <v>14</v>
@@ -1595,10 +1721,25 @@
         <v>0.28</v>
       </c>
       <c r="X9" t="s">
-        <v>115</v>
+        <v>116</v>
+      </c>
+      <c r="Y9">
+        <v>0.53</v>
+      </c>
+      <c r="Z9">
+        <v>3.9</v>
+      </c>
+      <c r="AA9">
+        <v>-0.51</v>
       </c>
       <c r="AC9" t="s">
-        <v>146</v>
+        <v>147</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
       </c>
       <c r="AF9">
         <v>0</v>
@@ -1606,22 +1747,25 @@
       <c r="AG9">
         <v>2.265268325805664</v>
       </c>
-      <c r="AH9" t="s">
-        <v>148</v>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:35">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C10">
         <v>300252</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E10">
         <v>3.74</v>
@@ -1639,7 +1783,7 @@
         <v>47127.63</v>
       </c>
       <c r="J10" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1681,10 +1825,25 @@
         <v>-0.21</v>
       </c>
       <c r="X10" t="s">
-        <v>116</v>
+        <v>117</v>
+      </c>
+      <c r="Y10">
+        <v>-1.67</v>
+      </c>
+      <c r="Z10">
+        <v>16.61</v>
+      </c>
+      <c r="AA10">
+        <v>3.17</v>
       </c>
       <c r="AC10" t="s">
-        <v>147</v>
+        <v>148</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
       </c>
       <c r="AF10">
         <v>0</v>
@@ -1692,22 +1851,25 @@
       <c r="AG10">
         <v>-7.898247718811035</v>
       </c>
-      <c r="AH10" t="s">
-        <v>148</v>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:35">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C11">
         <v>300274</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E11">
         <v>0.6899999999999999</v>
@@ -1725,7 +1887,7 @@
         <v>264968.17</v>
       </c>
       <c r="J11" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K11">
         <v>10</v>
@@ -1767,10 +1929,25 @@
         <v>-0.01</v>
       </c>
       <c r="X11" t="s">
-        <v>117</v>
+        <v>118</v>
+      </c>
+      <c r="Y11">
+        <v>0.48</v>
+      </c>
+      <c r="Z11">
+        <v>144.24</v>
+      </c>
+      <c r="AA11">
+        <v>4.82</v>
       </c>
       <c r="AC11" t="s">
-        <v>147</v>
+        <v>148</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
       </c>
       <c r="AF11">
         <v>0</v>
@@ -1778,22 +1955,25 @@
       <c r="AG11">
         <v>1.108802199363708</v>
       </c>
-      <c r="AH11" t="s">
-        <v>148</v>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:34">
+    <row r="12" spans="1:35">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C12">
         <v>300290</v>
       </c>
       <c r="D12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E12">
         <v>0.54</v>
@@ -1811,7 +1991,7 @@
         <v>42820.79</v>
       </c>
       <c r="J12" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K12">
         <v>6</v>
@@ -1853,10 +2033,25 @@
         <v>0.06</v>
       </c>
       <c r="X12" t="s">
-        <v>118</v>
+        <v>119</v>
+      </c>
+      <c r="Y12">
+        <v>-1.22</v>
+      </c>
+      <c r="Z12">
+        <v>32.28</v>
+      </c>
+      <c r="AA12">
+        <v>2.48</v>
       </c>
       <c r="AC12" t="s">
-        <v>146</v>
+        <v>147</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
       </c>
       <c r="AF12">
         <v>0</v>
@@ -1864,22 +2059,25 @@
       <c r="AG12">
         <v>7.25870418548584</v>
       </c>
-      <c r="AH12" t="s">
-        <v>148</v>
+      <c r="AH12">
+        <v>0</v>
+      </c>
+      <c r="AI12">
+        <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:34">
+    <row r="13" spans="1:35">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C13">
         <v>300324</v>
       </c>
       <c r="D13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E13">
         <v>0.97</v>
@@ -1897,7 +2095,7 @@
         <v>37250.77</v>
       </c>
       <c r="J13" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K13">
         <v>4</v>
@@ -1939,10 +2137,25 @@
         <v>-0.12</v>
       </c>
       <c r="X13" t="s">
-        <v>119</v>
+        <v>120</v>
+      </c>
+      <c r="Y13">
+        <v>3.54</v>
+      </c>
+      <c r="Z13">
+        <v>7.81</v>
+      </c>
+      <c r="AA13">
+        <v>6.69</v>
       </c>
       <c r="AC13" t="s">
-        <v>147</v>
+        <v>148</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
       </c>
       <c r="AF13">
         <v>0</v>
@@ -1950,22 +2163,25 @@
       <c r="AG13">
         <v>3.665708303451538</v>
       </c>
-      <c r="AH13" t="s">
-        <v>148</v>
+      <c r="AH13">
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:34">
+    <row r="14" spans="1:35">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C14">
         <v>300331</v>
       </c>
       <c r="D14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E14">
         <v>-1.31</v>
@@ -1983,7 +2199,7 @@
         <v>20730.36</v>
       </c>
       <c r="J14" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K14">
         <v>8</v>
@@ -2025,10 +2241,25 @@
         <v>-0.01</v>
       </c>
       <c r="X14" t="s">
-        <v>120</v>
+        <v>121</v>
+      </c>
+      <c r="Y14">
+        <v>14.66</v>
+      </c>
+      <c r="Z14">
+        <v>40.26</v>
+      </c>
+      <c r="AA14">
+        <v>23.92</v>
       </c>
       <c r="AC14" t="s">
-        <v>147</v>
+        <v>148</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>1</v>
       </c>
       <c r="AF14">
         <v>0</v>
@@ -2036,22 +2267,25 @@
       <c r="AG14">
         <v>6.070400714874268</v>
       </c>
-      <c r="AH14" t="s">
-        <v>148</v>
+      <c r="AH14">
+        <v>0</v>
+      </c>
+      <c r="AI14">
+        <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:34">
+    <row r="15" spans="1:35">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C15">
         <v>300363</v>
       </c>
       <c r="D15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E15">
         <v>-1.43</v>
@@ -2069,7 +2303,7 @@
         <v>16328.76</v>
       </c>
       <c r="J15" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -2111,10 +2345,25 @@
         <v>-0.02</v>
       </c>
       <c r="X15" t="s">
-        <v>121</v>
+        <v>122</v>
+      </c>
+      <c r="Y15">
+        <v>-0.93</v>
+      </c>
+      <c r="Z15">
+        <v>28.35</v>
+      </c>
+      <c r="AA15">
+        <v>0.6</v>
       </c>
       <c r="AC15" t="s">
-        <v>147</v>
+        <v>148</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
       </c>
       <c r="AF15">
         <v>0</v>
@@ -2122,22 +2371,25 @@
       <c r="AG15">
         <v>6.992293834686279</v>
       </c>
-      <c r="AH15" t="s">
-        <v>148</v>
+      <c r="AH15">
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:34">
+    <row r="16" spans="1:35">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C16">
         <v>300428</v>
       </c>
       <c r="D16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E16">
         <v>0.49</v>
@@ -2155,7 +2407,7 @@
         <v>16037.55</v>
       </c>
       <c r="J16" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K16">
         <v>5</v>
@@ -2196,8 +2448,23 @@
       <c r="W16">
         <v>0.03</v>
       </c>
+      <c r="Y16">
+        <v>-3.7</v>
+      </c>
+      <c r="Z16">
+        <v>25.41</v>
+      </c>
+      <c r="AA16">
+        <v>3.38</v>
+      </c>
       <c r="AC16" t="s">
-        <v>146</v>
+        <v>147</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
       </c>
       <c r="AF16">
         <v>0</v>
@@ -2205,22 +2472,25 @@
       <c r="AG16">
         <v>2.678890705108643</v>
       </c>
-      <c r="AH16" t="s">
-        <v>148</v>
+      <c r="AH16">
+        <v>0</v>
+      </c>
+      <c r="AI16">
+        <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:34">
+    <row r="17" spans="1:35">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C17">
         <v>300450</v>
       </c>
       <c r="D17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E17">
         <v>-1.76</v>
@@ -2238,7 +2508,7 @@
         <v>184516.11</v>
       </c>
       <c r="J17" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K17">
         <v>13</v>
@@ -2280,10 +2550,25 @@
         <v>-0.24</v>
       </c>
       <c r="X17" t="s">
-        <v>122</v>
+        <v>123</v>
+      </c>
+      <c r="Y17">
+        <v>-2.6</v>
+      </c>
+      <c r="Z17">
+        <v>54.98</v>
+      </c>
+      <c r="AA17">
+        <v>0.68</v>
       </c>
       <c r="AC17" t="s">
-        <v>147</v>
+        <v>148</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
       </c>
       <c r="AF17">
         <v>0</v>
@@ -2291,22 +2576,25 @@
       <c r="AG17">
         <v>4.814299583435059</v>
       </c>
-      <c r="AH17" t="s">
-        <v>148</v>
+      <c r="AH17">
+        <v>0</v>
+      </c>
+      <c r="AI17">
+        <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:34">
+    <row r="18" spans="1:35">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C18">
         <v>300457</v>
       </c>
       <c r="D18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E18">
         <v>-3.38</v>
@@ -2324,7 +2612,7 @@
         <v>45216.18</v>
       </c>
       <c r="J18" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K18">
         <v>11</v>
@@ -2366,10 +2654,25 @@
         <v>-0.03</v>
       </c>
       <c r="X18" t="s">
-        <v>122</v>
+        <v>123</v>
+      </c>
+      <c r="Y18">
+        <v>5.94</v>
+      </c>
+      <c r="Z18">
+        <v>37.9</v>
+      </c>
+      <c r="AA18">
+        <v>13.44</v>
       </c>
       <c r="AC18" t="s">
-        <v>147</v>
+        <v>148</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>1</v>
       </c>
       <c r="AF18">
         <v>0</v>
@@ -2377,22 +2680,25 @@
       <c r="AG18">
         <v>7.340613842010498</v>
       </c>
-      <c r="AH18" t="s">
-        <v>148</v>
+      <c r="AH18">
+        <v>0</v>
+      </c>
+      <c r="AI18">
+        <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:34">
+    <row r="19" spans="1:35">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C19">
         <v>300475</v>
       </c>
       <c r="D19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E19">
         <v>-1.11</v>
@@ -2410,7 +2716,7 @@
         <v>71942.89999999999</v>
       </c>
       <c r="J19" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K19">
         <v>8</v>
@@ -2452,10 +2758,25 @@
         <v>-0.08</v>
       </c>
       <c r="X19" t="s">
-        <v>123</v>
+        <v>124</v>
+      </c>
+      <c r="Y19">
+        <v>4.31</v>
+      </c>
+      <c r="Z19">
+        <v>79.90000000000001</v>
+      </c>
+      <c r="AA19">
+        <v>7.02</v>
       </c>
       <c r="AC19" t="s">
-        <v>147</v>
+        <v>148</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>1</v>
       </c>
       <c r="AF19">
         <v>0</v>
@@ -2463,22 +2784,25 @@
       <c r="AG19">
         <v>3.911516189575195</v>
       </c>
-      <c r="AH19" t="s">
-        <v>148</v>
+      <c r="AH19">
+        <v>0</v>
+      </c>
+      <c r="AI19">
+        <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:34">
+    <row r="20" spans="1:35">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20">
         <v>300476</v>
       </c>
       <c r="D20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E20">
         <v>5.08</v>
@@ -2496,7 +2820,7 @@
         <v>549632.51</v>
       </c>
       <c r="J20" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K20">
         <v>70</v>
@@ -2538,10 +2862,25 @@
         <v>0.08</v>
       </c>
       <c r="X20" t="s">
-        <v>124</v>
+        <v>125</v>
+      </c>
+      <c r="Y20">
+        <v>-3.78</v>
+      </c>
+      <c r="Z20">
+        <v>350.99</v>
+      </c>
+      <c r="AA20">
+        <v>1.35</v>
       </c>
       <c r="AC20" t="s">
-        <v>147</v>
+        <v>148</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>0</v>
       </c>
       <c r="AF20">
         <v>0</v>
@@ -2549,22 +2888,25 @@
       <c r="AG20">
         <v>4.826076507568359</v>
       </c>
-      <c r="AH20" t="s">
-        <v>148</v>
+      <c r="AH20">
+        <v>0</v>
+      </c>
+      <c r="AI20">
+        <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:34">
+    <row r="21" spans="1:35">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C21">
         <v>300528</v>
       </c>
       <c r="D21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E21">
         <v>-4.35</v>
@@ -2582,7 +2924,7 @@
         <v>44816.47</v>
       </c>
       <c r="J21" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K21">
         <v>6</v>
@@ -2624,10 +2966,25 @@
         <v>-0.46</v>
       </c>
       <c r="X21" t="s">
-        <v>125</v>
+        <v>126</v>
+      </c>
+      <c r="Y21">
+        <v>-7.38</v>
+      </c>
+      <c r="Z21">
+        <v>30.5</v>
+      </c>
+      <c r="AA21">
+        <v>-0.97</v>
       </c>
       <c r="AC21" t="s">
-        <v>147</v>
+        <v>148</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <v>0</v>
       </c>
       <c r="AF21">
         <v>0</v>
@@ -2635,22 +2992,25 @@
       <c r="AG21">
         <v>2.633830308914185</v>
       </c>
-      <c r="AH21" t="s">
-        <v>148</v>
+      <c r="AH21">
+        <v>0</v>
+      </c>
+      <c r="AI21">
+        <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:34">
+    <row r="22" spans="1:35">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C22">
         <v>300680</v>
       </c>
       <c r="D22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E22">
         <v>3.18</v>
@@ -2668,7 +3028,7 @@
         <v>34422.93</v>
       </c>
       <c r="J22" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K22">
         <v>4</v>
@@ -2710,10 +3070,25 @@
         <v>0.35</v>
       </c>
       <c r="X22" t="s">
-        <v>126</v>
+        <v>127</v>
+      </c>
+      <c r="Y22">
+        <v>6.68</v>
+      </c>
+      <c r="Z22">
+        <v>67.5</v>
+      </c>
+      <c r="AA22">
+        <v>8.869999999999999</v>
       </c>
       <c r="AC22" t="s">
-        <v>146</v>
+        <v>147</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <v>1</v>
       </c>
       <c r="AF22">
         <v>0</v>
@@ -2721,22 +3096,25 @@
       <c r="AG22">
         <v>1.823635458946228</v>
       </c>
-      <c r="AH22" t="s">
-        <v>148</v>
+      <c r="AH22">
+        <v>0</v>
+      </c>
+      <c r="AI22">
+        <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:34">
+    <row r="23" spans="1:35">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C23">
         <v>300803</v>
       </c>
       <c r="D23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E23">
         <v>1.83</v>
@@ -2754,7 +3132,7 @@
         <v>80405.25</v>
       </c>
       <c r="J23" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K23">
         <v>26</v>
@@ -2795,8 +3173,23 @@
       <c r="W23">
         <v>-0.04</v>
       </c>
+      <c r="Y23">
+        <v>9.619999999999999</v>
+      </c>
+      <c r="Z23">
+        <v>179.01</v>
+      </c>
+      <c r="AA23">
+        <v>18.41</v>
+      </c>
       <c r="AC23" t="s">
-        <v>147</v>
+        <v>148</v>
+      </c>
+      <c r="AD23">
+        <v>1</v>
+      </c>
+      <c r="AE23">
+        <v>1</v>
       </c>
       <c r="AF23">
         <v>1</v>
@@ -2804,22 +3197,25 @@
       <c r="AG23">
         <v>8.265233993530273</v>
       </c>
-      <c r="AH23" t="s">
-        <v>148</v>
+      <c r="AH23">
+        <v>0</v>
+      </c>
+      <c r="AI23">
+        <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:34">
+    <row r="24" spans="1:35">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C24">
         <v>300852</v>
       </c>
       <c r="D24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E24">
         <v>-2.08</v>
@@ -2837,7 +3233,7 @@
         <v>8365.370000000001</v>
       </c>
       <c r="J24" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -2879,10 +3275,25 @@
         <v>-0.08</v>
       </c>
       <c r="X24" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="Y24">
+        <v>6.35</v>
+      </c>
+      <c r="Z24">
+        <v>48.86</v>
+      </c>
+      <c r="AA24">
+        <v>8.220000000000001</v>
       </c>
       <c r="AC24" t="s">
-        <v>147</v>
+        <v>148</v>
+      </c>
+      <c r="AD24">
+        <v>0</v>
+      </c>
+      <c r="AE24">
+        <v>1</v>
       </c>
       <c r="AF24">
         <v>0</v>
@@ -2890,22 +3301,25 @@
       <c r="AG24">
         <v>5.296854972839355</v>
       </c>
-      <c r="AH24" t="s">
-        <v>148</v>
+      <c r="AH24">
+        <v>0</v>
+      </c>
+      <c r="AI24">
+        <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:34">
+    <row r="25" spans="1:35">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C25">
         <v>300857</v>
       </c>
       <c r="D25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E25">
         <v>3.09</v>
@@ -2923,7 +3337,7 @@
         <v>61157.89</v>
       </c>
       <c r="J25" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K25">
         <v>18</v>
@@ -2964,8 +3378,23 @@
       <c r="W25">
         <v>0.03</v>
       </c>
+      <c r="Y25">
+        <v>6.76</v>
+      </c>
+      <c r="Z25">
+        <v>167.77</v>
+      </c>
+      <c r="AA25">
+        <v>17.24</v>
+      </c>
       <c r="AC25" t="s">
-        <v>146</v>
+        <v>147</v>
+      </c>
+      <c r="AD25">
+        <v>0</v>
+      </c>
+      <c r="AE25">
+        <v>1</v>
       </c>
       <c r="AF25">
         <v>0</v>
@@ -2973,22 +3402,25 @@
       <c r="AG25">
         <v>5.538572311401367</v>
       </c>
-      <c r="AH25" t="s">
-        <v>148</v>
+      <c r="AH25">
+        <v>0</v>
+      </c>
+      <c r="AI25">
+        <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:34">
+    <row r="26" spans="1:35">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C26">
         <v>300859</v>
       </c>
       <c r="D26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E26">
         <v>1.35</v>
@@ -3006,7 +3438,7 @@
         <v>18934.28</v>
       </c>
       <c r="J26" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K26">
         <v>6</v>
@@ -3048,10 +3480,25 @@
         <v>-0.18</v>
       </c>
       <c r="X26" t="s">
-        <v>128</v>
+        <v>129</v>
+      </c>
+      <c r="Y26">
+        <v>-3.95</v>
+      </c>
+      <c r="Z26">
+        <v>52.48</v>
+      </c>
+      <c r="AA26">
+        <v>1.41</v>
       </c>
       <c r="AC26" t="s">
-        <v>147</v>
+        <v>148</v>
+      </c>
+      <c r="AD26">
+        <v>0</v>
+      </c>
+      <c r="AE26">
+        <v>0</v>
       </c>
       <c r="AF26">
         <v>0</v>
@@ -3059,22 +3506,25 @@
       <c r="AG26">
         <v>3.032926559448242</v>
       </c>
-      <c r="AH26" t="s">
-        <v>148</v>
+      <c r="AH26">
+        <v>0</v>
+      </c>
+      <c r="AI26">
+        <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:34">
+    <row r="27" spans="1:35">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C27">
         <v>300918</v>
       </c>
       <c r="D27" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E27">
         <v>7.32</v>
@@ -3092,7 +3542,7 @@
         <v>52563.99</v>
       </c>
       <c r="J27" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K27">
         <v>1</v>
@@ -3134,10 +3584,25 @@
         <v>0.12</v>
       </c>
       <c r="X27" t="s">
-        <v>129</v>
+        <v>130</v>
+      </c>
+      <c r="Y27">
+        <v>-4.35</v>
+      </c>
+      <c r="Z27">
+        <v>26.2</v>
+      </c>
+      <c r="AA27">
+        <v>3.35</v>
       </c>
       <c r="AC27" t="s">
-        <v>146</v>
+        <v>147</v>
+      </c>
+      <c r="AD27">
+        <v>0</v>
+      </c>
+      <c r="AE27">
+        <v>0</v>
       </c>
       <c r="AF27">
         <v>0</v>
@@ -3145,22 +3610,25 @@
       <c r="AG27">
         <v>4.193371295928955</v>
       </c>
-      <c r="AH27" t="s">
-        <v>148</v>
+      <c r="AH27">
+        <v>0</v>
+      </c>
+      <c r="AI27">
+        <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:34">
+    <row r="28" spans="1:35">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C28">
         <v>300953</v>
       </c>
       <c r="D28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E28">
         <v>4.8</v>
@@ -3178,7 +3646,7 @@
         <v>47760.03</v>
       </c>
       <c r="J28" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K28">
         <v>15</v>
@@ -3220,10 +3688,25 @@
         <v>0.18</v>
       </c>
       <c r="X28" t="s">
-        <v>130</v>
+        <v>131</v>
+      </c>
+      <c r="Y28">
+        <v>0.01</v>
+      </c>
+      <c r="Z28">
+        <v>181</v>
+      </c>
+      <c r="AA28">
+        <v>8</v>
       </c>
       <c r="AC28" t="s">
-        <v>146</v>
+        <v>147</v>
+      </c>
+      <c r="AD28">
+        <v>0</v>
+      </c>
+      <c r="AE28">
+        <v>1</v>
       </c>
       <c r="AF28">
         <v>0</v>
@@ -3231,22 +3714,25 @@
       <c r="AG28">
         <v>2.420875310897827</v>
       </c>
-      <c r="AH28" t="s">
-        <v>148</v>
+      <c r="AH28">
+        <v>0</v>
+      </c>
+      <c r="AI28">
+        <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:34">
+    <row r="29" spans="1:35">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C29">
         <v>301076</v>
       </c>
       <c r="D29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E29">
         <v>-1.28</v>
@@ -3264,7 +3750,7 @@
         <v>23990.96</v>
       </c>
       <c r="J29" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K29">
         <v>7</v>
@@ -3306,10 +3792,25 @@
         <v>-0.19</v>
       </c>
       <c r="X29" t="s">
-        <v>131</v>
+        <v>132</v>
+      </c>
+      <c r="Y29">
+        <v>1.92</v>
+      </c>
+      <c r="Z29">
+        <v>66.48</v>
+      </c>
+      <c r="AA29">
+        <v>8.130000000000001</v>
       </c>
       <c r="AC29" t="s">
-        <v>147</v>
+        <v>148</v>
+      </c>
+      <c r="AD29">
+        <v>0</v>
+      </c>
+      <c r="AE29">
+        <v>1</v>
       </c>
       <c r="AF29">
         <v>0</v>
@@ -3317,22 +3818,25 @@
       <c r="AG29">
         <v>49.94250106811523</v>
       </c>
-      <c r="AH29" t="s">
-        <v>148</v>
+      <c r="AH29">
+        <v>0</v>
+      </c>
+      <c r="AI29">
+        <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:34">
+    <row r="30" spans="1:35">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C30">
         <v>301150</v>
       </c>
       <c r="D30" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E30">
         <v>-3.44</v>
@@ -3350,7 +3854,7 @@
         <v>32383.23</v>
       </c>
       <c r="J30" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K30">
         <v>11</v>
@@ -3392,10 +3896,25 @@
         <v>0.22</v>
       </c>
       <c r="X30" t="s">
-        <v>132</v>
+        <v>133</v>
+      </c>
+      <c r="Y30">
+        <v>-1.6</v>
+      </c>
+      <c r="Z30">
+        <v>42.87</v>
+      </c>
+      <c r="AA30">
+        <v>1.08</v>
       </c>
       <c r="AC30" t="s">
-        <v>146</v>
+        <v>147</v>
+      </c>
+      <c r="AD30">
+        <v>0</v>
+      </c>
+      <c r="AE30">
+        <v>0</v>
       </c>
       <c r="AF30">
         <v>0</v>
@@ -3403,22 +3922,25 @@
       <c r="AG30">
         <v>0.4408164620399475</v>
       </c>
-      <c r="AH30" t="s">
-        <v>148</v>
+      <c r="AH30">
+        <v>0</v>
+      </c>
+      <c r="AI30">
+        <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:34">
+    <row r="31" spans="1:35">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C31">
         <v>301307</v>
       </c>
       <c r="D31" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E31">
         <v>12.21</v>
@@ -3436,7 +3958,7 @@
         <v>34521.09</v>
       </c>
       <c r="J31" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K31">
         <v>5</v>
@@ -3477,8 +3999,23 @@
       <c r="W31">
         <v>0.39</v>
       </c>
+      <c r="Y31">
+        <v>-3.17</v>
+      </c>
+      <c r="Z31">
+        <v>42.12</v>
+      </c>
+      <c r="AA31">
+        <v>11.55</v>
+      </c>
       <c r="AC31" t="s">
-        <v>146</v>
+        <v>147</v>
+      </c>
+      <c r="AD31">
+        <v>0</v>
+      </c>
+      <c r="AE31">
+        <v>1</v>
       </c>
       <c r="AF31">
         <v>0</v>
@@ -3486,22 +4023,25 @@
       <c r="AG31">
         <v>-1.924134373664856</v>
       </c>
-      <c r="AH31" t="s">
-        <v>148</v>
+      <c r="AH31">
+        <v>0</v>
+      </c>
+      <c r="AI31">
+        <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:34">
+    <row r="32" spans="1:35">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C32">
         <v>301377</v>
       </c>
       <c r="D32" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E32">
         <v>1.33</v>
@@ -3519,7 +4059,7 @@
         <v>13405.21</v>
       </c>
       <c r="J32" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K32">
         <v>5</v>
@@ -3561,10 +4101,25 @@
         <v>0.26</v>
       </c>
       <c r="X32" t="s">
-        <v>133</v>
+        <v>134</v>
+      </c>
+      <c r="Y32">
+        <v>-1.27</v>
+      </c>
+      <c r="Z32">
+        <v>86.90000000000001</v>
+      </c>
+      <c r="AA32">
+        <v>-1.91</v>
       </c>
       <c r="AC32" t="s">
-        <v>146</v>
+        <v>147</v>
+      </c>
+      <c r="AD32">
+        <v>0</v>
+      </c>
+      <c r="AE32">
+        <v>0</v>
       </c>
       <c r="AF32">
         <v>0</v>
@@ -3572,22 +4127,25 @@
       <c r="AG32">
         <v>2.215995073318481</v>
       </c>
-      <c r="AH32" t="s">
-        <v>148</v>
+      <c r="AH32">
+        <v>0</v>
+      </c>
+      <c r="AI32">
+        <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:34">
+    <row r="33" spans="1:35">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C33">
         <v>301389</v>
       </c>
       <c r="D33" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E33">
         <v>8.24</v>
@@ -3605,7 +4163,7 @@
         <v>45103.23</v>
       </c>
       <c r="J33" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K33">
         <v>1</v>
@@ -3647,10 +4205,25 @@
         <v>0.82</v>
       </c>
       <c r="X33" t="s">
-        <v>134</v>
+        <v>135</v>
+      </c>
+      <c r="Y33">
+        <v>-4.38</v>
+      </c>
+      <c r="Z33">
+        <v>70.2</v>
+      </c>
+      <c r="AA33">
+        <v>-1.74</v>
       </c>
       <c r="AC33" t="s">
-        <v>146</v>
+        <v>147</v>
+      </c>
+      <c r="AD33">
+        <v>0</v>
+      </c>
+      <c r="AE33">
+        <v>0</v>
       </c>
       <c r="AF33">
         <v>0</v>
@@ -3658,22 +4231,25 @@
       <c r="AG33">
         <v>4.626693725585938</v>
       </c>
-      <c r="AH33" t="s">
-        <v>148</v>
+      <c r="AH33">
+        <v>0</v>
+      </c>
+      <c r="AI33">
+        <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:34">
+    <row r="34" spans="1:35">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C34">
         <v>301396</v>
       </c>
       <c r="D34" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E34">
         <v>-1.65</v>
@@ -3691,7 +4267,7 @@
         <v>18125.11</v>
       </c>
       <c r="J34" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K34">
         <v>1</v>
@@ -3733,10 +4309,25 @@
         <v>-0.29</v>
       </c>
       <c r="X34" t="s">
-        <v>135</v>
+        <v>136</v>
+      </c>
+      <c r="Y34">
+        <v>0.85</v>
+      </c>
+      <c r="Z34">
+        <v>79.81999999999999</v>
+      </c>
+      <c r="AA34">
+        <v>2.14</v>
       </c>
       <c r="AC34" t="s">
-        <v>147</v>
+        <v>148</v>
+      </c>
+      <c r="AD34">
+        <v>0</v>
+      </c>
+      <c r="AE34">
+        <v>0</v>
       </c>
       <c r="AF34">
         <v>0</v>
@@ -3744,22 +4335,25 @@
       <c r="AG34">
         <v>60.07249069213867</v>
       </c>
-      <c r="AH34" t="s">
-        <v>148</v>
+      <c r="AH34">
+        <v>0</v>
+      </c>
+      <c r="AI34">
+        <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:34">
+    <row r="35" spans="1:35">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C35">
         <v>301413</v>
       </c>
       <c r="D35" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E35">
         <v>3.26</v>
@@ -3777,7 +4371,7 @@
         <v>18461.38</v>
       </c>
       <c r="J35" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K35">
         <v>18</v>
@@ -3819,10 +4413,25 @@
         <v>0.13</v>
       </c>
       <c r="X35" t="s">
-        <v>136</v>
+        <v>137</v>
+      </c>
+      <c r="Y35">
+        <v>8.539999999999999</v>
+      </c>
+      <c r="Z35">
+        <v>200.15</v>
+      </c>
+      <c r="AA35">
+        <v>29.14</v>
       </c>
       <c r="AC35" t="s">
-        <v>146</v>
+        <v>147</v>
+      </c>
+      <c r="AD35">
+        <v>0</v>
+      </c>
+      <c r="AE35">
+        <v>1</v>
       </c>
       <c r="AF35">
         <v>0</v>
@@ -3830,22 +4439,25 @@
       <c r="AG35">
         <v>38.92063522338867</v>
       </c>
-      <c r="AH35" t="s">
-        <v>148</v>
+      <c r="AH35">
+        <v>0</v>
+      </c>
+      <c r="AI35">
+        <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:34">
+    <row r="36" spans="1:35">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C36">
         <v>301488</v>
       </c>
       <c r="D36" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E36">
         <v>6.52</v>
@@ -3863,7 +4475,7 @@
         <v>49963.91</v>
       </c>
       <c r="J36" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K36">
         <v>15</v>
@@ -3905,10 +4517,25 @@
         <v>-0.48</v>
       </c>
       <c r="X36" t="s">
-        <v>137</v>
+        <v>138</v>
+      </c>
+      <c r="Y36">
+        <v>14.22</v>
+      </c>
+      <c r="Z36">
+        <v>222.22</v>
+      </c>
+      <c r="AA36">
+        <v>17.1</v>
       </c>
       <c r="AC36" t="s">
-        <v>147</v>
+        <v>148</v>
+      </c>
+      <c r="AD36">
+        <v>0</v>
+      </c>
+      <c r="AE36">
+        <v>1</v>
       </c>
       <c r="AF36">
         <v>0</v>
@@ -3916,22 +4543,25 @@
       <c r="AG36">
         <v>3.454102754592896</v>
       </c>
-      <c r="AH36" t="s">
-        <v>148</v>
+      <c r="AH36">
+        <v>0</v>
+      </c>
+      <c r="AI36">
+        <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:34">
+    <row r="37" spans="1:35">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C37">
         <v>688028</v>
       </c>
       <c r="D37" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E37">
         <v>2.93</v>
@@ -3949,7 +4579,7 @@
         <v>15597</v>
       </c>
       <c r="J37" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K37">
         <v>7</v>
@@ -3990,8 +4620,23 @@
       <c r="W37">
         <v>-0.06</v>
       </c>
+      <c r="Y37">
+        <v>-3.06</v>
+      </c>
+      <c r="Z37">
+        <v>43.9</v>
+      </c>
+      <c r="AA37">
+        <v>-5.2</v>
+      </c>
       <c r="AC37" t="s">
-        <v>147</v>
+        <v>148</v>
+      </c>
+      <c r="AD37">
+        <v>0</v>
+      </c>
+      <c r="AE37">
+        <v>0</v>
       </c>
       <c r="AF37">
         <v>0</v>
@@ -3999,22 +4644,25 @@
       <c r="AG37">
         <v>0.3434557020664215</v>
       </c>
-      <c r="AH37" t="s">
-        <v>148</v>
+      <c r="AH37">
+        <v>0</v>
+      </c>
+      <c r="AI37">
+        <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:34">
+    <row r="38" spans="1:35">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C38">
         <v>688041</v>
       </c>
       <c r="D38" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E38">
         <v>8.24</v>
@@ -4032,7 +4680,7 @@
         <v>319424.67</v>
       </c>
       <c r="J38" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K38">
         <v>0</v>
@@ -4074,10 +4722,25 @@
         <v>0</v>
       </c>
       <c r="X38" t="s">
-        <v>138</v>
+        <v>139</v>
+      </c>
+      <c r="Y38">
+        <v>-1.35</v>
+      </c>
+      <c r="Z38">
+        <v>244.97</v>
+      </c>
+      <c r="AA38">
+        <v>-2.23</v>
       </c>
       <c r="AC38" t="s">
-        <v>147</v>
+        <v>148</v>
+      </c>
+      <c r="AD38">
+        <v>0</v>
+      </c>
+      <c r="AE38">
+        <v>0</v>
       </c>
       <c r="AF38">
         <v>0</v>
@@ -4085,22 +4748,25 @@
       <c r="AG38">
         <v>4.389962673187256</v>
       </c>
-      <c r="AH38" t="s">
-        <v>148</v>
+      <c r="AH38">
+        <v>0</v>
+      </c>
+      <c r="AI38">
+        <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:34">
+    <row r="39" spans="1:35">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C39">
         <v>688147</v>
       </c>
       <c r="D39" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E39">
         <v>-1.73</v>
@@ -4118,7 +4784,7 @@
         <v>10849.69</v>
       </c>
       <c r="J39" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K39">
         <v>22</v>
@@ -4159,8 +4825,23 @@
       <c r="W39">
         <v>-0.11</v>
       </c>
+      <c r="Y39">
+        <v>3.02</v>
+      </c>
+      <c r="Z39">
+        <v>50.99</v>
+      </c>
+      <c r="AA39">
+        <v>8.119999999999999</v>
+      </c>
       <c r="AC39" t="s">
-        <v>147</v>
+        <v>148</v>
+      </c>
+      <c r="AD39">
+        <v>0</v>
+      </c>
+      <c r="AE39">
+        <v>1</v>
       </c>
       <c r="AF39">
         <v>0</v>
@@ -4168,22 +4849,25 @@
       <c r="AG39">
         <v>6.910030364990234</v>
       </c>
-      <c r="AH39" t="s">
-        <v>148</v>
+      <c r="AH39">
+        <v>0</v>
+      </c>
+      <c r="AI39">
+        <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:34">
+    <row r="40" spans="1:35">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C40">
         <v>688167</v>
       </c>
       <c r="D40" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E40">
         <v>-0.5</v>
@@ -4201,7 +4885,7 @@
         <v>17071.22</v>
       </c>
       <c r="J40" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K40">
         <v>8</v>
@@ -4243,10 +4927,25 @@
         <v>-0.03</v>
       </c>
       <c r="X40" t="s">
-        <v>120</v>
+        <v>121</v>
+      </c>
+      <c r="Y40">
+        <v>6.65</v>
+      </c>
+      <c r="Z40">
+        <v>181.5</v>
+      </c>
+      <c r="AA40">
+        <v>13.65</v>
       </c>
       <c r="AC40" t="s">
-        <v>147</v>
+        <v>148</v>
+      </c>
+      <c r="AD40">
+        <v>0</v>
+      </c>
+      <c r="AE40">
+        <v>1</v>
       </c>
       <c r="AF40">
         <v>0</v>
@@ -4254,22 +4953,25 @@
       <c r="AG40">
         <v>3.775215625762939</v>
       </c>
-      <c r="AH40" t="s">
-        <v>148</v>
+      <c r="AH40">
+        <v>0</v>
+      </c>
+      <c r="AI40">
+        <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:34">
+    <row r="41" spans="1:35">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C41">
         <v>688195</v>
       </c>
       <c r="D41" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E41">
         <v>1.79</v>
@@ -4287,7 +4989,7 @@
         <v>29415.38</v>
       </c>
       <c r="J41" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K41">
         <v>22</v>
@@ -4329,10 +5031,25 @@
         <v>-0.01</v>
       </c>
       <c r="X41" t="s">
-        <v>139</v>
+        <v>140</v>
+      </c>
+      <c r="Y41">
+        <v>-0.84</v>
+      </c>
+      <c r="Z41">
+        <v>116.6</v>
+      </c>
+      <c r="AA41">
+        <v>4.14</v>
       </c>
       <c r="AC41" t="s">
-        <v>147</v>
+        <v>148</v>
+      </c>
+      <c r="AD41">
+        <v>0</v>
+      </c>
+      <c r="AE41">
+        <v>0</v>
       </c>
       <c r="AF41">
         <v>0</v>
@@ -4340,22 +5057,25 @@
       <c r="AG41">
         <v>3.172094106674194</v>
       </c>
-      <c r="AH41" t="s">
-        <v>148</v>
+      <c r="AH41">
+        <v>0</v>
+      </c>
+      <c r="AI41">
+        <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:34">
+    <row r="42" spans="1:35">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C42">
         <v>688202</v>
       </c>
       <c r="D42" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E42">
         <v>-1.53</v>
@@ -4373,7 +5093,7 @@
         <v>10819.66</v>
       </c>
       <c r="J42" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K42">
         <v>4</v>
@@ -4415,10 +5135,25 @@
         <v>-0.09</v>
       </c>
       <c r="X42" t="s">
-        <v>140</v>
+        <v>141</v>
+      </c>
+      <c r="Y42">
+        <v>-5.41</v>
+      </c>
+      <c r="Z42">
+        <v>80.93000000000001</v>
+      </c>
+      <c r="AA42">
+        <v>1.34</v>
       </c>
       <c r="AC42" t="s">
-        <v>147</v>
+        <v>148</v>
+      </c>
+      <c r="AD42">
+        <v>0</v>
+      </c>
+      <c r="AE42">
+        <v>0</v>
       </c>
       <c r="AF42">
         <v>0</v>
@@ -4426,22 +5161,25 @@
       <c r="AG42">
         <v>4.22957181930542</v>
       </c>
-      <c r="AH42" t="s">
-        <v>148</v>
+      <c r="AH42">
+        <v>0</v>
+      </c>
+      <c r="AI42">
+        <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:34">
+    <row r="43" spans="1:35">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C43">
         <v>688228</v>
       </c>
       <c r="D43" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E43">
         <v>-2.18</v>
@@ -4459,7 +5197,7 @@
         <v>28071.71</v>
       </c>
       <c r="J43" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K43">
         <v>5</v>
@@ -4501,10 +5239,25 @@
         <v>0.01</v>
       </c>
       <c r="X43" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="Y43">
+        <v>0.55</v>
+      </c>
+      <c r="Z43">
+        <v>185</v>
+      </c>
+      <c r="AA43">
+        <v>3.35</v>
       </c>
       <c r="AC43" t="s">
-        <v>146</v>
+        <v>147</v>
+      </c>
+      <c r="AD43">
+        <v>0</v>
+      </c>
+      <c r="AE43">
+        <v>0</v>
       </c>
       <c r="AF43">
         <v>0</v>
@@ -4512,22 +5265,25 @@
       <c r="AG43">
         <v>0.9436204433441162</v>
       </c>
-      <c r="AH43" t="s">
-        <v>148</v>
+      <c r="AH43">
+        <v>0</v>
+      </c>
+      <c r="AI43">
+        <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:34">
+    <row r="44" spans="1:35">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C44">
         <v>688256</v>
       </c>
       <c r="D44" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E44">
         <v>2.78</v>
@@ -4545,7 +5301,7 @@
         <v>322399.97</v>
       </c>
       <c r="J44" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K44">
         <v>4</v>
@@ -4587,10 +5343,25 @@
         <v>0</v>
       </c>
       <c r="X44" t="s">
-        <v>142</v>
+        <v>143</v>
+      </c>
+      <c r="Y44">
+        <v>0.13</v>
+      </c>
+      <c r="Z44">
+        <v>1470.02</v>
+      </c>
+      <c r="AA44">
+        <v>-0.67</v>
       </c>
       <c r="AC44" t="s">
-        <v>147</v>
+        <v>148</v>
+      </c>
+      <c r="AD44">
+        <v>0</v>
+      </c>
+      <c r="AE44">
+        <v>0</v>
       </c>
       <c r="AF44">
         <v>0</v>
@@ -4598,22 +5369,25 @@
       <c r="AG44">
         <v>3.243095636367798</v>
       </c>
-      <c r="AH44" t="s">
-        <v>148</v>
+      <c r="AH44">
+        <v>0</v>
+      </c>
+      <c r="AI44">
+        <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:34">
+    <row r="45" spans="1:35">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C45">
         <v>688411</v>
       </c>
       <c r="D45" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E45">
         <v>0.86</v>
@@ -4631,7 +5405,7 @@
         <v>19205.63</v>
       </c>
       <c r="J45" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K45">
         <v>11</v>
@@ -4673,10 +5447,25 @@
         <v>-0.18</v>
       </c>
       <c r="X45" t="s">
-        <v>143</v>
+        <v>144</v>
+      </c>
+      <c r="Y45">
+        <v>0.67</v>
+      </c>
+      <c r="Z45">
+        <v>218</v>
+      </c>
+      <c r="AA45">
+        <v>9</v>
       </c>
       <c r="AC45" t="s">
-        <v>147</v>
+        <v>148</v>
+      </c>
+      <c r="AD45">
+        <v>0</v>
+      </c>
+      <c r="AE45">
+        <v>1</v>
       </c>
       <c r="AF45">
         <v>0</v>
@@ -4684,22 +5473,25 @@
       <c r="AG45">
         <v>0.2352633625268936</v>
       </c>
-      <c r="AH45" t="s">
-        <v>148</v>
+      <c r="AH45">
+        <v>0</v>
+      </c>
+      <c r="AI45">
+        <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:34">
+    <row r="46" spans="1:35">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C46">
         <v>688521</v>
       </c>
       <c r="D46" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E46">
         <v>-1.81</v>
@@ -4717,7 +5509,7 @@
         <v>90969.77</v>
       </c>
       <c r="J46" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K46">
         <v>10</v>
@@ -4759,10 +5551,25 @@
         <v>-0.03</v>
       </c>
       <c r="X46" t="s">
-        <v>144</v>
+        <v>145</v>
+      </c>
+      <c r="Y46">
+        <v>-4.31</v>
+      </c>
+      <c r="Z46">
+        <v>180.55</v>
+      </c>
+      <c r="AA46">
+        <v>1.42</v>
       </c>
       <c r="AC46" t="s">
-        <v>147</v>
+        <v>148</v>
+      </c>
+      <c r="AD46">
+        <v>0</v>
+      </c>
+      <c r="AE46">
+        <v>0</v>
       </c>
       <c r="AF46">
         <v>0</v>
@@ -4770,22 +5577,25 @@
       <c r="AG46">
         <v>2.802343606948853</v>
       </c>
-      <c r="AH46" t="s">
-        <v>148</v>
+      <c r="AH46">
+        <v>0</v>
+      </c>
+      <c r="AI46">
+        <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:34">
+    <row r="47" spans="1:35">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C47">
         <v>688629</v>
       </c>
       <c r="D47" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E47">
         <v>0.32</v>
@@ -4803,7 +5613,7 @@
         <v>14709.72</v>
       </c>
       <c r="J47" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K47">
         <v>4</v>
@@ -4845,10 +5655,25 @@
         <v>0.11</v>
       </c>
       <c r="X47" t="s">
-        <v>145</v>
+        <v>146</v>
+      </c>
+      <c r="Y47">
+        <v>-0.44</v>
+      </c>
+      <c r="Z47">
+        <v>90.14</v>
+      </c>
+      <c r="AA47">
+        <v>3.3</v>
       </c>
       <c r="AC47" t="s">
-        <v>146</v>
+        <v>147</v>
+      </c>
+      <c r="AD47">
+        <v>0</v>
+      </c>
+      <c r="AE47">
+        <v>0</v>
       </c>
       <c r="AF47">
         <v>0</v>
@@ -4856,22 +5681,25 @@
       <c r="AG47">
         <v>4.279898166656494</v>
       </c>
-      <c r="AH47" t="s">
-        <v>148</v>
+      <c r="AH47">
+        <v>0</v>
+      </c>
+      <c r="AI47">
+        <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:34">
+    <row r="48" spans="1:35">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C48">
         <v>688766</v>
       </c>
       <c r="D48" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E48">
         <v>20</v>
@@ -4889,7 +5717,7 @@
         <v>110646.22</v>
       </c>
       <c r="J48" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K48">
         <v>1</v>
@@ -4930,8 +5758,23 @@
       <c r="W48">
         <v>0.7</v>
       </c>
+      <c r="Y48">
+        <v>-0.46</v>
+      </c>
+      <c r="Z48">
+        <v>114.44</v>
+      </c>
+      <c r="AA48">
+        <v>8.369999999999999</v>
+      </c>
       <c r="AC48" t="s">
-        <v>146</v>
+        <v>147</v>
+      </c>
+      <c r="AD48">
+        <v>1</v>
+      </c>
+      <c r="AE48">
+        <v>1</v>
       </c>
       <c r="AF48">
         <v>1</v>
@@ -4939,8 +5782,11 @@
       <c r="AG48">
         <v>15.88609218597412</v>
       </c>
-      <c r="AH48" t="s">
-        <v>149</v>
+      <c r="AH48">
+        <v>1</v>
+      </c>
+      <c r="AI48">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
